--- a/resources/data_driven_data/DataDriven.xlsx
+++ b/resources/data_driven_data/DataDriven.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\SuperSport_Cuc\resources\data_driven_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Central\HW\Central10\resources\data_driven_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -936,7 +936,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/data_driven_data/DataDriven.xlsx
+++ b/resources/data_driven_data/DataDriven.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Central\HW\Central10\resources\data_driven_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\SuperSport_Cuc\resources\data_driven_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -936,7 +936,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
